--- a/Lab7/Data/Part4.xlsx
+++ b/Lab7/Data/Part4.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murtadha\Desktop\Lab 5 Electrical Resonance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viraj/Google_Drive/Queens/second_year/semester_two/ENPHYS253/Lab7/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090"/>
+    <workbookView xWindow="8480" yWindow="5200" windowWidth="14380" windowHeight="7460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,24 +30,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Frequency [kHz]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>VR1 [V]</t>
   </si>
   <si>
-    <t>VT1 [V]</t>
+    <t>VT1 [V] +/- 0.05 [V]</t>
   </si>
   <si>
-    <t>Phase Shift [Degrees]</t>
+    <t>Phase Shift [Degrees] +/- 2 [Degrees]</t>
+  </si>
+  <si>
+    <t>Frequency [kHz] +/- 0.1 [kHz]</t>
+  </si>
+  <si>
+    <t>Error in VR1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,8 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,179 +401,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6.07</v>
       </c>
       <c r="B2">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
+        <f>B2*5/100</f>
+        <v>3.5499999999999998E-3</v>
+      </c>
+      <c r="D2">
         <v>7.59</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7.1</v>
       </c>
       <c r="B3">
         <v>0.104</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C12" si="0">B3*5/100</f>
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D3">
         <v>7.59</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7.73</v>
       </c>
       <c r="B4">
         <v>0.14099999999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0499999999999998E-3</v>
+      </c>
+      <c r="D4">
         <v>7.59</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8.31</v>
       </c>
       <c r="B5">
         <v>0.192</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="D5">
         <v>7.58</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9.1300000000000008</v>
       </c>
       <c r="B6">
         <v>0.33500000000000002</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6750000000000001E-2</v>
+      </c>
+      <c r="D6">
         <v>7.62</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9.7799999999999994</v>
       </c>
       <c r="B7">
         <v>0.44800000000000001</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2400000000000003E-2</v>
+      </c>
+      <c r="D7">
         <v>7.48</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10.51</v>
       </c>
       <c r="B8">
         <v>0.33600000000000002</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6800000000000002E-2</v>
+      </c>
+      <c r="D8">
         <v>7.46</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>11.35</v>
       </c>
       <c r="B9">
         <v>0.216</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="D9">
         <v>7.49</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>12.45</v>
       </c>
       <c r="B10">
         <v>0.14199999999999999</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0999999999999995E-3</v>
+      </c>
+      <c r="D10">
         <v>7.51</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>15.6</v>
       </c>
       <c r="B11">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.65E-3</v>
+      </c>
+      <c r="D11">
         <v>7.52</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-78</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>17.25</v>
       </c>
       <c r="B12">
         <v>0.06</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D12">
         <v>6.52</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-83</v>
       </c>
     </row>
